--- a/2024/WGBYC2TAF/output/TOR_A_long_table_bycatch_only.xlsx
+++ b/2024/WGBYC2TAF/output/TOR_A_long_table_bycatch_only.xlsx
@@ -11399,10 +11399,10 @@
         <v>152</v>
       </c>
       <c r="J294" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K294" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -11504,10 +11504,10 @@
         <v>154</v>
       </c>
       <c r="J297" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="K297" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298">
@@ -11539,10 +11539,10 @@
         <v>155</v>
       </c>
       <c r="J298" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K298" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -11609,10 +11609,10 @@
         <v>156</v>
       </c>
       <c r="J300" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="K300" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -12192,10 +12192,10 @@
         <v>67</v>
       </c>
       <c r="J317" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K317" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318">
@@ -12402,10 +12402,10 @@
         <v>152</v>
       </c>
       <c r="J323" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="K323" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324">
@@ -12437,10 +12437,10 @@
         <v>164</v>
       </c>
       <c r="J324" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="K324" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325">
@@ -12472,10 +12472,10 @@
         <v>154</v>
       </c>
       <c r="J325" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="K325" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326">
@@ -12507,10 +12507,10 @@
         <v>155</v>
       </c>
       <c r="J326" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K326" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -12577,10 +12577,10 @@
         <v>156</v>
       </c>
       <c r="J328" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K328" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="329">
@@ -18208,10 +18208,10 @@
         <v>67</v>
       </c>
       <c r="J489" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="K489" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="490">
@@ -18348,10 +18348,10 @@
         <v>152</v>
       </c>
       <c r="J493" t="n">
-        <v>-46</v>
+        <v>8</v>
       </c>
       <c r="K493" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="494">
@@ -18383,10 +18383,10 @@
         <v>164</v>
       </c>
       <c r="J494" t="n">
-        <v>71.75</v>
+        <v>125.75</v>
       </c>
       <c r="K494" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="495">
@@ -18453,10 +18453,10 @@
         <v>156</v>
       </c>
       <c r="J496" t="n">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="K496" t="n">
-        <v>-18</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497">
@@ -19923,10 +19923,10 @@
         <v>67</v>
       </c>
       <c r="J538" t="n">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="K538" t="n">
-        <v>-12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="539">
@@ -20098,10 +20098,10 @@
         <v>152</v>
       </c>
       <c r="J543" t="n">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="K543" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="544">
@@ -20133,10 +20133,10 @@
         <v>164</v>
       </c>
       <c r="J544" t="n">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="K544" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="545">
@@ -20203,10 +20203,10 @@
         <v>156</v>
       </c>
       <c r="J546" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K546" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="547">
@@ -20833,10 +20833,10 @@
         <v>67</v>
       </c>
       <c r="J564" t="n">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="K564" t="n">
-        <v>-13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="565">
@@ -21043,10 +21043,10 @@
         <v>152</v>
       </c>
       <c r="J570" t="n">
-        <v>-28</v>
+        <v>26</v>
       </c>
       <c r="K570" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="571">
@@ -21078,10 +21078,10 @@
         <v>164</v>
       </c>
       <c r="J571" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="K571" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="572">
@@ -21148,10 +21148,10 @@
         <v>154</v>
       </c>
       <c r="J573" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K573" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -21183,10 +21183,10 @@
         <v>156</v>
       </c>
       <c r="J574" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="K574" t="n">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="575">
@@ -21568,10 +21568,10 @@
         <v>193</v>
       </c>
       <c r="J585" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K585" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586">
@@ -21638,10 +21638,10 @@
         <v>67</v>
       </c>
       <c r="J587" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K587" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="588">
@@ -21778,10 +21778,10 @@
         <v>152</v>
       </c>
       <c r="J591" t="n">
-        <v>-31</v>
+        <v>23</v>
       </c>
       <c r="K591" t="n">
-        <v>-8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="592">
@@ -21813,10 +21813,10 @@
         <v>164</v>
       </c>
       <c r="J592" t="n">
-        <v>-21.82</v>
+        <v>32.18</v>
       </c>
       <c r="K592" t="n">
-        <v>-17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="593">
@@ -21918,10 +21918,10 @@
         <v>154</v>
       </c>
       <c r="J595" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="K595" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -21988,10 +21988,10 @@
         <v>156</v>
       </c>
       <c r="J597" t="n">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="K597" t="n">
-        <v>243</v>
+        <v>297</v>
       </c>
     </row>
     <row r="598">
@@ -26993,10 +26993,10 @@
         <v>138</v>
       </c>
       <c r="J740" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K740" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="741">
@@ -27378,10 +27378,10 @@
         <v>172</v>
       </c>
       <c r="J751" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="K751" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752">
@@ -27448,10 +27448,10 @@
         <v>156</v>
       </c>
       <c r="J753" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="K753" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -27728,10 +27728,10 @@
         <v>67</v>
       </c>
       <c r="J761" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K761" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -28323,10 +28323,10 @@
         <v>67</v>
       </c>
       <c r="J778" t="n">
-        <v>-38</v>
+        <v>25</v>
       </c>
       <c r="K778" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="779">
@@ -28358,10 +28358,10 @@
         <v>36</v>
       </c>
       <c r="J779" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K779" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -28428,10 +28428,10 @@
         <v>205</v>
       </c>
       <c r="J781" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="K781" t="n">
-        <v>-14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="782">
@@ -28463,10 +28463,10 @@
         <v>206</v>
       </c>
       <c r="J782" t="n">
-        <v>-43</v>
+        <v>11</v>
       </c>
       <c r="K782" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="783">
@@ -28568,10 +28568,10 @@
         <v>172</v>
       </c>
       <c r="J785" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="K785" t="n">
-        <v>-14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="786">
@@ -28638,10 +28638,10 @@
         <v>154</v>
       </c>
       <c r="J787" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K787" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -28673,10 +28673,10 @@
         <v>156</v>
       </c>
       <c r="J788" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="K788" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="789">
@@ -29641,10 +29641,10 @@
         <v>67</v>
       </c>
       <c r="J816" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="K816" t="n">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="817">
@@ -29956,10 +29956,10 @@
         <v>152</v>
       </c>
       <c r="J825" t="n">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="K825" t="n">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="826">
@@ -29991,10 +29991,10 @@
         <v>164</v>
       </c>
       <c r="J826" t="n">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="K826" t="n">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="827">
@@ -30061,10 +30061,10 @@
         <v>154</v>
       </c>
       <c r="J828" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K828" t="n">
-        <v>-17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="829">
@@ -30096,10 +30096,10 @@
         <v>156</v>
       </c>
       <c r="J829" t="n">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="K829" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="830">
